--- a/app/views/space_data.xlsx
+++ b/app/views/space_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FionaJamieson\Documents\Prototypes\space\app\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41EB4A3-8882-40D1-BE49-531C2727A9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E21EA9-3C0C-4120-B130-638C771D226F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D5D1E4A6-9811-4BB1-9D5B-B9C1AFA2B864}"/>
   </bookViews>
@@ -33,9 +33,217 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+  <si>
+    <t>NORAD CAT ID</t>
+  </si>
+  <si>
+    <t>SATNAME</t>
+  </si>
+  <si>
+    <t>INTLDES</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>LAUNCH</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>DECAY</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>INCL</t>
+  </si>
+  <si>
+    <t>APOGEE</t>
+  </si>
+  <si>
+    <t>PERIGEE</t>
+  </si>
+  <si>
+    <t>RCS</t>
+  </si>
+  <si>
+    <t>LATEST ELSET</t>
+  </si>
+  <si>
+    <t>43510 </t>
+  </si>
+  <si>
+    <t>REMOVEDEBRIS</t>
+  </si>
+  <si>
+    <t>1998-067NT</t>
+  </si>
+  <si>
+    <t>PAYLOAD</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>TTMTR</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <r>
+      <t>TLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC8C8C8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF7EA4CD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OMM</t>
+    </r>
+  </si>
+  <si>
+    <t>32664 </t>
+  </si>
+  <si>
+    <t>USA 193 DEB</t>
+  </si>
+  <si>
+    <t>2006-057EP</t>
+  </si>
+  <si>
+    <t>DEBRIS</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>AFWTR</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>25219 </t>
+  </si>
+  <si>
+    <t>SL-14 DEB</t>
+  </si>
+  <si>
+    <t>1987-068AW</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>PKMTR</t>
+  </si>
+  <si>
+    <t>46198 </t>
+  </si>
+  <si>
+    <t>H-2A DEB</t>
+  </si>
+  <si>
+    <t>2018-084AK</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>TNSTA</t>
+  </si>
+  <si>
+    <t>15649 </t>
+  </si>
+  <si>
+    <t>COSMOS 1644 DEB</t>
+  </si>
+  <si>
+    <t>1985-027H</t>
+  </si>
+  <si>
+    <t>20969 </t>
+  </si>
+  <si>
+    <t>CZ-4 DEB</t>
+  </si>
+  <si>
+    <t>1990-081CB</t>
+  </si>
+  <si>
+    <t>PRC</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>264 </t>
+  </si>
+  <si>
+    <t>THOR ABLESTAR DEB</t>
+  </si>
+  <si>
+    <t>1961-015CL</t>
+  </si>
+  <si>
+    <t>AFETR</t>
+  </si>
+  <si>
+    <t>28288 </t>
+  </si>
+  <si>
+    <t>SL-18 DEB</t>
+  </si>
+  <si>
+    <t>1993-014R</t>
+  </si>
+  <si>
+    <t>16972 </t>
+  </si>
+  <si>
+    <t>COSMOS 1775 DEB</t>
+  </si>
+  <si>
+    <t>1986-066E</t>
+  </si>
+  <si>
+    <t>14662 </t>
+  </si>
+  <si>
+    <t>COSMOS 1530 DEB</t>
+  </si>
+  <si>
+    <t>1984-002D</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +251,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFC8C8C8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFC8C8C8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF7EA4CD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E3338"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF565656"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF353A41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -60,14 +320,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF1C1E22"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1C1E22"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1C1E22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF1C1E22"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1C1E22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1C1E22"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1C1E22"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1C1E22"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1C1E22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1C1E22"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1C1E22"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1C1E22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,12 +745,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C4488E-C4D4-4EFA-A932-8FA4AAE32A6D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4">
+        <v>36119</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>91.91</v>
+      </c>
+      <c r="J3" s="3">
+        <v>51.63</v>
+      </c>
+      <c r="K3" s="3">
+        <v>369</v>
+      </c>
+      <c r="L3" s="3">
+        <v>367</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>39065</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7">
+        <v>39544</v>
+      </c>
+      <c r="I4" s="6">
+        <v>90.23</v>
+      </c>
+      <c r="J4" s="6">
+        <v>58.94</v>
+      </c>
+      <c r="K4" s="6">
+        <v>375</v>
+      </c>
+      <c r="L4" s="6">
+        <v>196</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4">
+        <v>32007</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4">
+        <v>35985</v>
+      </c>
+      <c r="I5" s="3">
+        <v>92.63</v>
+      </c>
+      <c r="J5" s="3">
+        <v>82.43</v>
+      </c>
+      <c r="K5" s="3">
+        <v>461</v>
+      </c>
+      <c r="L5" s="3">
+        <v>346</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43402</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <v>95.42</v>
+      </c>
+      <c r="J6" s="6">
+        <v>97.79</v>
+      </c>
+      <c r="K6" s="6">
+        <v>590</v>
+      </c>
+      <c r="L6" s="6">
+        <v>488</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4">
+        <v>31140</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4">
+        <v>31163</v>
+      </c>
+      <c r="I7" s="3">
+        <v>89.63</v>
+      </c>
+      <c r="J7" s="3">
+        <v>70.64</v>
+      </c>
+      <c r="K7" s="3">
+        <v>272</v>
+      </c>
+      <c r="L7" s="3">
+        <v>239</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7">
+        <v>33119</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>100.39</v>
+      </c>
+      <c r="J8" s="6">
+        <v>98.44</v>
+      </c>
+      <c r="K8" s="6">
+        <v>811</v>
+      </c>
+      <c r="L8" s="6">
+        <v>743</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <v>22461</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>100.88</v>
+      </c>
+      <c r="J9" s="3">
+        <v>66.53</v>
+      </c>
+      <c r="K9" s="3">
+        <v>820</v>
+      </c>
+      <c r="L9" s="3">
+        <v>780</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7">
+        <v>34053</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
+        <v>93.95</v>
+      </c>
+      <c r="J10" s="6">
+        <v>75.739999999999995</v>
+      </c>
+      <c r="K10" s="6">
+        <v>475</v>
+      </c>
+      <c r="L10" s="6">
+        <v>460</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4">
+        <v>31658</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4">
+        <v>31766</v>
+      </c>
+      <c r="I11" s="3">
+        <v>89.64</v>
+      </c>
+      <c r="J11" s="3">
+        <v>70.34</v>
+      </c>
+      <c r="K11" s="3">
+        <v>264</v>
+      </c>
+      <c r="L11" s="3">
+        <v>250</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="16">
+        <v>30692</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="16">
+        <v>30783</v>
+      </c>
+      <c r="I12" s="15">
+        <v>87.98</v>
+      </c>
+      <c r="J12" s="15">
+        <v>72.8</v>
+      </c>
+      <c r="K12" s="15">
+        <v>179</v>
+      </c>
+      <c r="L12" s="15">
+        <v>170</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/43510/format/html/emptyresult/show" xr:uid="{28158E75-BFA4-4274-B590-1A0146D3B259}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/32664/format/html/emptyresult/show" xr:uid="{04315FA4-ED6C-4089-A02B-1C951EBDD9F6}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/25219/format/html/emptyresult/show" xr:uid="{80E37AF8-EBA2-4553-9478-F23CED7E1C6E}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/46198/format/html/emptyresult/show" xr:uid="{40EC570D-F9A5-4182-8444-A6CA5A5A31FF}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/15649/format/html/emptyresult/show" xr:uid="{D460DFE7-DC13-41AE-BE12-09BD75395782}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/20969/format/html/emptyresult/show" xr:uid="{3B306E41-AB36-4E4C-923C-7821A8F16686}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/264/format/html/emptyresult/show" xr:uid="{0E21CDA0-E5F0-4474-8A5F-DBBBBA4D008E}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/28288/format/html/emptyresult/show" xr:uid="{4670CBEB-DE4F-447F-8123-05256B2F292E}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/16972/format/html/emptyresult/show" xr:uid="{1649D40C-4AA1-4D8E-9E80-37707DA5C26F}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.space-track.org/basicspacedata/query/class/satcat/NORAD_CAT_ID/14662/format/html/emptyresult/show" xr:uid="{86135AB5-EA1B-415D-9B08-07786E26468B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/app/views/space_data.xlsx
+++ b/app/views/space_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FionaJamieson\Documents\Prototypes\space\app\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E21EA9-3C0C-4120-B130-638C771D226F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834809F-09AE-4077-BAE2-A97797DD6A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D5D1E4A6-9811-4BB1-9D5B-B9C1AFA2B864}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{D5D1E4A6-9811-4BB1-9D5B-B9C1AFA2B864}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Space data sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Alternate sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>NORAD CAT ID</t>
   </si>
@@ -237,6 +238,18 @@
   </si>
   <si>
     <t>LARGE</t>
+  </si>
+  <si>
+    <t>How does a man cut his hair on the moon?</t>
+  </si>
+  <si>
+    <t>Eclipse it</t>
+  </si>
+  <si>
+    <t>How do you get a baby astronaut to go to sleep?</t>
+  </si>
+  <si>
+    <t>Rocket</t>
   </si>
 </sst>
 </file>
@@ -747,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C4488E-C4D4-4EFA-A932-8FA4AAE32A6D}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,4 +1272,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB9CCEB-EF22-427C-8C42-ADF96FF7C671}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>